--- a/IBK/excel/gt_bl_29.xlsx
+++ b/IBK/excel/gt_bl_29.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="581">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2117,6 +2117,178 @@
   </si>
   <si>
     <t>SHIPMENT DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB. 15,2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.16.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.16.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.17.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.16.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.02.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.02.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.16.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.03.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.20.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.17.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/02/2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB. 17,2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB. 19,2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB. 03,2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/02/2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAN/26/2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB/03/2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.20.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB.21.2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEB. 21,2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-JAN-2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI DRIVE V#027W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMA CGM COLUMBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI PRIVILEGE 059W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINOKOR ULSAN 1913E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEONG HEE 309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILD SONATA V.1906E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITC HANSHIN 1906S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI JAKARTA 093E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM WINNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI PRIVILEGE V#059W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKY HOPE V#120S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKY HOPE V#119S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPRESS ROME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAGOYA EXPRESS 054W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEARL RIVER BRIDGE 099N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI PRIDE V#027W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSC TERESA 907W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUNICH MAERSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOTA PEM IMPIN / 108W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSC DANIELA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,6 +2386,12 @@
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2498,20 +2676,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="204.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="90.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="25.375" style="1" bestFit="1" customWidth="1"/>
@@ -2563,6 +2742,12 @@
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2583,6 +2768,12 @@
       <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2603,6 +2794,12 @@
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2623,6 +2820,12 @@
       <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2640,6 +2843,9 @@
       <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
@@ -2663,6 +2869,12 @@
       <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -2683,6 +2895,12 @@
       <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -2703,6 +2921,12 @@
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2720,6 +2944,9 @@
       <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2743,6 +2970,9 @@
       <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2763,6 +2993,12 @@
       <c r="F12" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2780,6 +3016,12 @@
       <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2797,6 +3039,12 @@
       <c r="F14" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2817,6 +3065,12 @@
       <c r="F15" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2837,6 +3091,12 @@
       <c r="F16" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -2868,6 +3128,12 @@
       <c r="F18" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -2885,6 +3151,12 @@
       <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -2902,6 +3174,12 @@
       <c r="F20" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -2919,6 +3197,12 @@
       <c r="F21" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -2936,6 +3220,12 @@
       <c r="F22" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2956,6 +3246,12 @@
       <c r="F23" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -2976,6 +3272,9 @@
       <c r="F24" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2996,6 +3295,12 @@
       <c r="F25" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -3013,6 +3318,12 @@
       <c r="F26" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -3030,6 +3341,12 @@
       <c r="F27" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="G27" s="9">
+        <v>43512</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -3047,6 +3364,12 @@
       <c r="F28" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="G28" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -3083,6 +3406,12 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
